--- a/TO DO.xlsx
+++ b/TO DO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Если не хватает бабла, то нужно не уходить в долг, а купить актива на столько, на сколько хватает</t>
   </si>
@@ -22,7 +22,19 @@
     <t>в getDecision поиск MAVG_bid ведётся с 1 элемента, а не с нулевого</t>
   </si>
   <si>
-    <t>Запись шапки csv не нужно в input, так как потом всё равно происходит removeAt</t>
+    <t>в input не нужно записывать шапку csv , так как потом всё равно происходит removeAt</t>
+  </si>
+  <si>
+    <t>сохранять все виртуальные ордера</t>
+  </si>
+  <si>
+    <t>решить вопрос с синхронизацией информации в системе и на бирже</t>
+  </si>
+  <si>
+    <t>удалять ордер, если он долго не исполняется</t>
+  </si>
+  <si>
+    <t>ограничение на объём закупки сейчас работает не так, как задумывалось</t>
   </si>
 </sst>
 </file>
@@ -379,7 +391,7 @@
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,7 +400,7 @@
     <col min="2" max="2" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +415,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -434,7 +446,9 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -459,8 +473,10 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -473,7 +489,9 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -485,8 +503,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
